--- a/Go rank survey Mar-to-Jun 2020 en_outliers.xlsx
+++ b/Go rank survey Mar-to-Jun 2020 en_outliers.xlsx
@@ -762,7 +762,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>IGS_pandanet</t>
+    <t>IGS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1757,7 +1757,7 @@
   <dimension ref="A1:P191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
